--- a/pmt_model/data_for_mta/template_options_lookup.xlsx
+++ b/pmt_model/data_for_mta/template_options_lookup.xlsx
@@ -8,21 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\MTA\MTA2025\pmt_model\data_for_mta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0BB5CA-EF8F-4218-8FAC-1885D7F9D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B475C5-0595-4D85-8E99-41C56CF00E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lookup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Lookup Table: Full-year revenue impact of a 1 basis point change in the payroll mobility tax rate for a given firm payroll range</t>
+  </si>
+  <si>
+    <t>Amounts are in dollars, at 2025 payroll levels</t>
   </si>
 </sst>
 </file>
@@ -34,7 +50,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +97,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,7 +128,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -115,17 +139,22 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -462,138 +491,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="6" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -621,20 +639,20 @@
       <c r="B39" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
@@ -644,9 +662,11 @@
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
